--- a/data/dados_epidemicos.xlsx
+++ b/data/dados_epidemicos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\workspace-pycharm\multicampidash\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582C7B40-1E74-47F4-97A9-CF12DCA0D20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC982F26-C838-4426-A56B-7D8A7EDB8E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ÁGUAS BELAS" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,10 +146,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -196,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -210,8 +206,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -438,20 +433,20 @@
   </sheetPr>
   <dimension ref="A1:E1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -501,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -1928,7 +1923,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -1946,10 +1941,40 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E85" s="6"/>
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>358</v>
+      </c>
+      <c r="C85" s="4">
+        <v>295</v>
+      </c>
+      <c r="D85" s="4">
+        <v>16</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E86" s="6"/>
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>374</v>
+      </c>
+      <c r="C86" s="4">
+        <v>307</v>
+      </c>
+      <c r="D86" s="4">
+        <v>16</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E87" s="6"/>
@@ -4766,20 +4791,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4829,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -6256,7 +6283,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -6271,6 +6298,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>445</v>
+      </c>
+      <c r="C85" s="4">
+        <v>289</v>
+      </c>
+      <c r="D85" s="4">
+        <v>31</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>467</v>
+      </c>
+      <c r="C86" s="4">
+        <v>289</v>
+      </c>
+      <c r="D86" s="4">
+        <v>31</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6286,20 +6349,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6349,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -7776,7 +7841,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -7791,6 +7856,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>6</v>
+      </c>
+      <c r="C85" s="4">
+        <v>5</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>7</v>
+      </c>
+      <c r="C86" s="4">
+        <v>5</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7806,20 +7907,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -7869,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -9296,7 +9399,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -9309,6 +9412,42 @@
         <v>3</v>
       </c>
       <c r="E84" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>66</v>
+      </c>
+      <c r="C85" s="4">
+        <v>56</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>66</v>
+      </c>
+      <c r="C86" s="4">
+        <v>57</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3</v>
+      </c>
+      <c r="E86" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9326,20 +9465,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9389,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -10816,7 +10957,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -10831,6 +10972,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>60</v>
+      </c>
+      <c r="C85" s="4">
+        <v>41</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>68</v>
+      </c>
+      <c r="C86" s="4">
+        <v>44</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10846,20 +11023,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10909,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -12336,7 +12515,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -12351,6 +12530,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>60</v>
+      </c>
+      <c r="C85" s="4">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>63</v>
+      </c>
+      <c r="C86" s="4">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12366,20 +12581,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -12429,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -13373,7 +13590,7 @@
       <c r="A57" s="3">
         <v>43984</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>1</v>
       </c>
       <c r="C57" s="4">
@@ -13625,10 +13842,10 @@
       <c r="A71" s="3">
         <v>43998</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>5</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="11">
         <v>4</v>
       </c>
       <c r="D71" s="4">
@@ -13643,10 +13860,10 @@
       <c r="A72" s="3">
         <v>43999</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>5</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>5</v>
       </c>
       <c r="D72" s="4">
@@ -13661,10 +13878,10 @@
       <c r="A73" s="3">
         <v>44000</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>5</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <v>5</v>
       </c>
       <c r="D73" s="4">
@@ -13679,10 +13896,10 @@
       <c r="A74" s="3">
         <v>44001</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <v>5</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="11">
         <v>5</v>
       </c>
       <c r="D74" s="4">
@@ -13697,10 +13914,10 @@
       <c r="A75" s="3">
         <v>44002</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <v>5</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <v>5</v>
       </c>
       <c r="D75" s="4">
@@ -13715,10 +13932,10 @@
       <c r="A76" s="3">
         <v>44003</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <v>5</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="11">
         <v>5</v>
       </c>
       <c r="D76" s="4">
@@ -13733,10 +13950,10 @@
       <c r="A77" s="3">
         <v>44004</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="11">
         <v>5</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <v>5</v>
       </c>
       <c r="D77" s="4">
@@ -13856,7 +14073,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -13871,6 +14088,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>10</v>
+      </c>
+      <c r="C85" s="4">
+        <v>5</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>15</v>
+      </c>
+      <c r="C86" s="4">
+        <v>5</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -13886,20 +14139,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -13949,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -15376,7 +15631,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -15391,6 +15646,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>122</v>
+      </c>
+      <c r="C85" s="4">
+        <v>55</v>
+      </c>
+      <c r="D85" s="4">
+        <v>10</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>125</v>
+      </c>
+      <c r="C86" s="4">
+        <v>55</v>
+      </c>
+      <c r="D86" s="4">
+        <v>11</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -15406,20 +15697,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -15469,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -16035,13 +16328,13 @@
       <c r="A36" s="3">
         <v>43963</v>
       </c>
-      <c r="B36" s="12">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
         <v>0</v>
       </c>
       <c r="E36" s="10">
@@ -16053,13 +16346,13 @@
       <c r="A37" s="3">
         <v>43964</v>
       </c>
-      <c r="B37" s="12">
-        <v>2</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12">
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" s="10">
@@ -16071,13 +16364,13 @@
       <c r="A38" s="3">
         <v>43965</v>
       </c>
-      <c r="B38" s="12">
-        <v>2</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="B38" s="11">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="10">
@@ -16089,13 +16382,13 @@
       <c r="A39" s="3">
         <v>43966</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>3</v>
       </c>
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="10">
@@ -16107,13 +16400,13 @@
       <c r="A40" s="3">
         <v>43967</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>3</v>
       </c>
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="12">
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="10">
@@ -16125,13 +16418,13 @@
       <c r="A41" s="3">
         <v>43968</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>3</v>
       </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="12">
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11">
         <v>0</v>
       </c>
       <c r="E41" s="10">
@@ -16143,13 +16436,13 @@
       <c r="A42" s="3">
         <v>43969</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>4</v>
       </c>
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="12">
+      <c r="C42" s="11">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
         <v>0</v>
       </c>
       <c r="E42" s="10">
@@ -16161,13 +16454,13 @@
       <c r="A43" s="3">
         <v>43970</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>5</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>4</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>0</v>
       </c>
       <c r="E43" s="10">
@@ -16179,13 +16472,13 @@
       <c r="A44" s="3">
         <v>43971</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>5</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>4</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>0</v>
       </c>
       <c r="E44" s="10">
@@ -16197,13 +16490,13 @@
       <c r="A45" s="3">
         <v>43972</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>5</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>4</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>0</v>
       </c>
       <c r="E45" s="10">
@@ -16215,13 +16508,13 @@
       <c r="A46" s="3">
         <v>43973</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>5</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>4</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>0</v>
       </c>
       <c r="E46" s="10">
@@ -16233,13 +16526,13 @@
       <c r="A47" s="3">
         <v>43974</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>6</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>4</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="10">
@@ -16251,13 +16544,13 @@
       <c r="A48" s="3">
         <v>43975</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>6</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>4</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="10">
@@ -16269,13 +16562,13 @@
       <c r="A49" s="3">
         <v>43976</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>6</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>4</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>1</v>
       </c>
       <c r="E49" s="10">
@@ -16287,13 +16580,13 @@
       <c r="A50" s="3">
         <v>43977</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>6</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>4</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>1</v>
       </c>
       <c r="E50" s="10">
@@ -16305,13 +16598,13 @@
       <c r="A51" s="3">
         <v>43978</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>6</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>4</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>1</v>
       </c>
       <c r="E51" s="10">
@@ -16323,13 +16616,13 @@
       <c r="A52" s="3">
         <v>43979</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>6</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>5</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="10">
@@ -16341,13 +16634,13 @@
       <c r="A53" s="3">
         <v>43980</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>6</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>5</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="10">
@@ -16359,13 +16652,13 @@
       <c r="A54" s="3">
         <v>43981</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>7</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>5</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>1</v>
       </c>
       <c r="E54" s="10">
@@ -16377,13 +16670,13 @@
       <c r="A55" s="3">
         <v>43982</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>8</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>5</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>1</v>
       </c>
       <c r="E55" s="10">
@@ -16395,13 +16688,13 @@
       <c r="A56" s="3">
         <v>43983</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>8</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>5</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="10">
@@ -16413,13 +16706,13 @@
       <c r="A57" s="3">
         <v>43984</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>8</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>5</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>1</v>
       </c>
       <c r="E57" s="10">
@@ -16431,13 +16724,13 @@
       <c r="A58" s="3">
         <v>43985</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>8</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>5</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>1</v>
       </c>
       <c r="E58" s="10">
@@ -16449,13 +16742,13 @@
       <c r="A59" s="3">
         <v>43986</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>8</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>5</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="10">
@@ -16467,13 +16760,13 @@
       <c r="A60" s="3">
         <v>43987</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>8</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>5</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>1</v>
       </c>
       <c r="E60" s="10">
@@ -16485,13 +16778,13 @@
       <c r="A61" s="3">
         <v>43988</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>8</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>5</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>1</v>
       </c>
       <c r="E61" s="10">
@@ -16503,13 +16796,13 @@
       <c r="A62" s="3">
         <v>43989</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <v>8</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>5</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>1</v>
       </c>
       <c r="E62" s="10">
@@ -16521,13 +16814,13 @@
       <c r="A63" s="3">
         <v>43990</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>8</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>5</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>1</v>
       </c>
       <c r="E63" s="10">
@@ -16539,13 +16832,13 @@
       <c r="A64" s="3">
         <v>43991</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>8</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>5</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="10">
@@ -16557,13 +16850,13 @@
       <c r="A65" s="3">
         <v>43992</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>8</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>5</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="10">
@@ -16575,13 +16868,13 @@
       <c r="A66" s="3">
         <v>43993</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <v>8</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>5</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="10">
@@ -16593,13 +16886,13 @@
       <c r="A67" s="3">
         <v>43994</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>8</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>5</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>1</v>
       </c>
       <c r="E67" s="10">
@@ -16611,13 +16904,13 @@
       <c r="A68" s="3">
         <v>43995</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>8</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>5</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="10">
@@ -16629,13 +16922,13 @@
       <c r="A69" s="3">
         <v>43996</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="11">
         <v>8</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>5</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="10">
@@ -16647,13 +16940,13 @@
       <c r="A70" s="3">
         <v>43997</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <v>10</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>6</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <v>2</v>
       </c>
       <c r="E70" s="10">
@@ -16665,13 +16958,13 @@
       <c r="A71" s="3">
         <v>43998</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>10</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="11">
         <v>6</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <v>2</v>
       </c>
       <c r="E71" s="10">
@@ -16896,7 +17189,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -16909,6 +17202,42 @@
         <v>2</v>
       </c>
       <c r="E84" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>11</v>
+      </c>
+      <c r="C85" s="4">
+        <v>7</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>11</v>
+      </c>
+      <c r="C86" s="4">
+        <v>7</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16926,20 +17255,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -16989,7 +17320,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -18416,7 +18747,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -18431,6 +18762,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>6</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>6</v>
+      </c>
+      <c r="C86" s="4">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18446,20 +18813,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -18509,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -19936,7 +20305,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -19951,6 +20320,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>25</v>
+      </c>
+      <c r="C85" s="4">
+        <v>17</v>
+      </c>
+      <c r="D85" s="4">
+        <v>4</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>27</v>
+      </c>
+      <c r="C86" s="4">
+        <v>17</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -19966,22 +20371,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -20031,7 +20436,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -21458,7 +21863,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -21473,6 +21878,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>36</v>
+      </c>
+      <c r="C85" s="4">
+        <v>32</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>37</v>
+      </c>
+      <c r="C86" s="4">
+        <v>32</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -21488,20 +21929,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -21551,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -22978,7 +23419,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -22993,6 +23434,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>16</v>
+      </c>
+      <c r="C85" s="4">
+        <v>8</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>17</v>
+      </c>
+      <c r="C86" s="4">
+        <v>8</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23008,20 +23485,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -23071,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -24498,7 +24975,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -24511,6 +24988,42 @@
         <v>1</v>
       </c>
       <c r="E84" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>9</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24528,20 +25041,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -24581,7 +25096,7 @@
       <c r="A4" s="3">
         <v>43931</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -24591,7 +25106,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>1</v>
       </c>
     </row>
@@ -24599,7 +25114,7 @@
       <c r="A5" s="3">
         <v>43932</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="4">
@@ -24617,7 +25132,7 @@
       <c r="A6" s="3">
         <v>43933</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="4">
@@ -24635,7 +25150,7 @@
       <c r="A7" s="3">
         <v>43934</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="4">
@@ -24653,7 +25168,7 @@
       <c r="A8" s="3">
         <v>43935</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -24671,13 +25186,13 @@
       <c r="A9" s="3">
         <v>43936</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
       <c r="E9" s="10">
@@ -24689,13 +25204,13 @@
       <c r="A10" s="3">
         <v>43937</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
       <c r="E10" s="10">
@@ -24707,13 +25222,13 @@
       <c r="A11" s="3">
         <v>43938</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>2</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
       <c r="E11" s="10">
@@ -24725,13 +25240,13 @@
       <c r="A12" s="3">
         <v>43939</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>1</v>
       </c>
       <c r="E12" s="10">
@@ -24743,13 +25258,13 @@
       <c r="A13" s="3">
         <v>43940</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>2</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="10">
@@ -24761,13 +25276,13 @@
       <c r="A14" s="3">
         <v>43941</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>2</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
       <c r="E14" s="10">
@@ -24779,13 +25294,13 @@
       <c r="A15" s="3">
         <v>43942</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>2</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>1</v>
       </c>
       <c r="E15" s="10">
@@ -24797,13 +25312,13 @@
       <c r="A16" s="3">
         <v>43943</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>1</v>
       </c>
       <c r="E16" s="10">
@@ -24815,13 +25330,13 @@
       <c r="A17" s="3">
         <v>43944</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>2</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>1</v>
       </c>
       <c r="E17" s="10">
@@ -24833,13 +25348,13 @@
       <c r="A18" s="3">
         <v>43945</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>2</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>1</v>
       </c>
       <c r="E18" s="10">
@@ -24851,13 +25366,13 @@
       <c r="A19" s="3">
         <v>43946</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>2</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>1</v>
       </c>
       <c r="E19" s="10">
@@ -24869,13 +25384,13 @@
       <c r="A20" s="3">
         <v>43947</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>2</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>1</v>
       </c>
       <c r="E20" s="10">
@@ -24887,13 +25402,13 @@
       <c r="A21" s="3">
         <v>43948</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>2</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
       <c r="E21" s="10">
@@ -24905,13 +25420,13 @@
       <c r="A22" s="3">
         <v>43949</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>4</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="E22" s="10">
@@ -24923,13 +25438,13 @@
       <c r="A23" s="3">
         <v>43950</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>4</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>1</v>
       </c>
       <c r="E23" s="10">
@@ -24941,13 +25456,13 @@
       <c r="A24" s="3">
         <v>43951</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>4</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
       <c r="E24" s="10">
@@ -24959,13 +25474,13 @@
       <c r="A25" s="3">
         <v>43952</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>4</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>1</v>
       </c>
       <c r="E25" s="10">
@@ -24977,13 +25492,13 @@
       <c r="A26" s="3">
         <v>43953</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="10">
@@ -24995,13 +25510,13 @@
       <c r="A27" s="3">
         <v>43954</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>4</v>
       </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="10">
@@ -25013,13 +25528,13 @@
       <c r="A28" s="3">
         <v>43955</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>5</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
         <v>1</v>
       </c>
       <c r="E28" s="10">
@@ -25031,13 +25546,13 @@
       <c r="A29" s="3">
         <v>43956</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>5</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
         <v>1</v>
       </c>
       <c r="E29" s="10">
@@ -25049,13 +25564,13 @@
       <c r="A30" s="3">
         <v>43957</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>6</v>
       </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
         <v>1</v>
       </c>
       <c r="E30" s="10">
@@ -25067,13 +25582,13 @@
       <c r="A31" s="3">
         <v>43958</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>6</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
         <v>1</v>
       </c>
       <c r="E31" s="10">
@@ -25085,13 +25600,13 @@
       <c r="A32" s="3">
         <v>43959</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>6</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
         <v>1</v>
       </c>
       <c r="E32" s="10">
@@ -25103,13 +25618,13 @@
       <c r="A33" s="3">
         <v>43960</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>6</v>
       </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="10">
@@ -25121,13 +25636,13 @@
       <c r="A34" s="3">
         <v>43961</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>6</v>
       </c>
-      <c r="C34" s="12">
-        <v>2</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C34" s="11">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11">
         <v>1</v>
       </c>
       <c r="E34" s="10">
@@ -25139,13 +25654,13 @@
       <c r="A35" s="3">
         <v>43962</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>10</v>
       </c>
-      <c r="C35" s="12">
-        <v>2</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11">
         <v>1</v>
       </c>
       <c r="E35" s="10">
@@ -25157,13 +25672,13 @@
       <c r="A36" s="3">
         <v>43963</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>24</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>3</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>1</v>
       </c>
       <c r="E36" s="10">
@@ -25175,13 +25690,13 @@
       <c r="A37" s="3">
         <v>43964</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>27</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>3</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>1</v>
       </c>
       <c r="E37" s="10">
@@ -25193,13 +25708,13 @@
       <c r="A38" s="3">
         <v>43965</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>29</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>3</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="10">
@@ -25211,13 +25726,13 @@
       <c r="A39" s="3">
         <v>43966</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>33</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>3</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="10">
@@ -25229,13 +25744,13 @@
       <c r="A40" s="3">
         <v>43967</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>36</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>3</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>1</v>
       </c>
       <c r="E40" s="10">
@@ -25247,13 +25762,13 @@
       <c r="A41" s="3">
         <v>43968</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>36</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>3</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41" s="10">
@@ -25265,13 +25780,13 @@
       <c r="A42" s="3">
         <v>43969</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>45</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>4</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="10">
@@ -25283,13 +25798,13 @@
       <c r="A43" s="3">
         <v>43970</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>52</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>6</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>1</v>
       </c>
       <c r="E43" s="10">
@@ -25301,13 +25816,13 @@
       <c r="A44" s="3">
         <v>43971</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>56</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>7</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>1</v>
       </c>
       <c r="E44" s="10">
@@ -25319,13 +25834,13 @@
       <c r="A45" s="3">
         <v>43972</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>60</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>8</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>1</v>
       </c>
       <c r="E45" s="10">
@@ -25337,13 +25852,13 @@
       <c r="A46" s="3">
         <v>43973</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>62</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>8</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>1</v>
       </c>
       <c r="E46" s="10">
@@ -25355,13 +25870,13 @@
       <c r="A47" s="3">
         <v>43974</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>63</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>8</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="10">
@@ -25373,13 +25888,13 @@
       <c r="A48" s="3">
         <v>43975</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>64</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>8</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="10">
@@ -25391,13 +25906,13 @@
       <c r="A49" s="3">
         <v>43976</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>70</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>25</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>1</v>
       </c>
       <c r="E49" s="10">
@@ -25409,13 +25924,13 @@
       <c r="A50" s="3">
         <v>43977</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>85</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>27</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>2</v>
       </c>
       <c r="E50" s="10">
@@ -25427,13 +25942,13 @@
       <c r="A51" s="3">
         <v>43978</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>88</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>28</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>2</v>
       </c>
       <c r="E51" s="10">
@@ -25445,13 +25960,13 @@
       <c r="A52" s="3">
         <v>43979</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>89</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>32</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>2</v>
       </c>
       <c r="E52" s="10">
@@ -25463,13 +25978,13 @@
       <c r="A53" s="3">
         <v>43980</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>92</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>36</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>2</v>
       </c>
       <c r="E53" s="10">
@@ -25481,13 +25996,13 @@
       <c r="A54" s="3">
         <v>43981</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>92</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>36</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>2</v>
       </c>
       <c r="E54" s="10">
@@ -25499,13 +26014,13 @@
       <c r="A55" s="3">
         <v>43982</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>92</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>37</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>2</v>
       </c>
       <c r="E55" s="10">
@@ -25517,13 +26032,13 @@
       <c r="A56" s="3">
         <v>43983</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>92</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>44</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>2</v>
       </c>
       <c r="E56" s="10">
@@ -25535,13 +26050,13 @@
       <c r="A57" s="3">
         <v>43984</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>94</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>46</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>2</v>
       </c>
       <c r="E57" s="10">
@@ -25553,13 +26068,13 @@
       <c r="A58" s="3">
         <v>43985</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>96</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>46</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>2</v>
       </c>
       <c r="E58" s="10">
@@ -25571,13 +26086,13 @@
       <c r="A59" s="3">
         <v>43986</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>96</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>46</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>2</v>
       </c>
       <c r="E59" s="10">
@@ -25589,13 +26104,13 @@
       <c r="A60" s="3">
         <v>43987</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>101</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>54</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>3</v>
       </c>
       <c r="E60" s="10">
@@ -25607,13 +26122,13 @@
       <c r="A61" s="3">
         <v>43988</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>102</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>54</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>3</v>
       </c>
       <c r="E61" s="10">
@@ -25625,13 +26140,13 @@
       <c r="A62" s="3">
         <v>43989</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <v>102</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>54</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>3</v>
       </c>
       <c r="E62" s="10">
@@ -25643,13 +26158,13 @@
       <c r="A63" s="3">
         <v>43990</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>104</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>55</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>3</v>
       </c>
       <c r="E63" s="10">
@@ -25661,13 +26176,13 @@
       <c r="A64" s="3">
         <v>43991</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>112</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>55</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>3</v>
       </c>
       <c r="E64" s="10">
@@ -25805,13 +26320,13 @@
       <c r="A72" s="3">
         <v>43999</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>134</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>69</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <v>5</v>
       </c>
       <c r="E72" s="10">
@@ -26018,7 +26533,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -26033,6 +26548,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>180</v>
+      </c>
+      <c r="C85" s="4">
+        <v>83</v>
+      </c>
+      <c r="D85" s="4">
+        <v>10</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>182</v>
+      </c>
+      <c r="C86" s="4">
+        <v>97</v>
+      </c>
+      <c r="D86" s="4">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26048,20 +26599,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -26111,7 +26664,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -27538,7 +28091,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -27551,6 +28104,42 @@
         <v>0</v>
       </c>
       <c r="E84" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>11</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>11</v>
+      </c>
+      <c r="C86" s="4">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -27568,20 +28157,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -27631,7 +28222,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -29058,7 +29649,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -29073,6 +29664,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>82</v>
+      </c>
+      <c r="C85" s="4">
+        <v>43</v>
+      </c>
+      <c r="D85" s="4">
+        <v>5</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>84</v>
+      </c>
+      <c r="C86" s="4">
+        <v>43</v>
+      </c>
+      <c r="D86" s="4">
+        <v>5</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -29088,20 +29715,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -29151,7 +29780,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -30578,7 +31207,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -30591,6 +31220,42 @@
         <v>1</v>
       </c>
       <c r="E84" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>21</v>
+      </c>
+      <c r="C85" s="4">
+        <v>14</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>21</v>
+      </c>
+      <c r="C86" s="4">
+        <v>19</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -30608,20 +31273,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -30671,7 +31338,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -31219,7 +31886,7 @@
       <c r="A35" s="3">
         <v>43962</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>1</v>
       </c>
       <c r="C35" s="4">
@@ -31237,7 +31904,7 @@
       <c r="A36" s="3">
         <v>43963</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>1</v>
       </c>
       <c r="C36" s="4">
@@ -31255,7 +31922,7 @@
       <c r="A37" s="3">
         <v>43964</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>2</v>
       </c>
       <c r="C37" s="4">
@@ -31273,7 +31940,7 @@
       <c r="A38" s="3">
         <v>43965</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>2</v>
       </c>
       <c r="C38" s="4">
@@ -31291,7 +31958,7 @@
       <c r="A39" s="3">
         <v>43966</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>2</v>
       </c>
       <c r="C39" s="4">
@@ -31309,7 +31976,7 @@
       <c r="A40" s="3">
         <v>43967</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>2</v>
       </c>
       <c r="C40" s="4">
@@ -31327,7 +31994,7 @@
       <c r="A41" s="3">
         <v>43968</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>2</v>
       </c>
       <c r="C41" s="4">
@@ -31345,7 +32012,7 @@
       <c r="A42" s="3">
         <v>43969</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>2</v>
       </c>
       <c r="C42" s="4">
@@ -31363,7 +32030,7 @@
       <c r="A43" s="3">
         <v>43970</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>2</v>
       </c>
       <c r="C43" s="4">
@@ -31381,7 +32048,7 @@
       <c r="A44" s="3">
         <v>43971</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>2</v>
       </c>
       <c r="C44" s="4">
@@ -31399,7 +32066,7 @@
       <c r="A45" s="3">
         <v>43972</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>2</v>
       </c>
       <c r="C45" s="4">
@@ -31417,7 +32084,7 @@
       <c r="A46" s="3">
         <v>43973</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>2</v>
       </c>
       <c r="C46" s="4">
@@ -31435,13 +32102,13 @@
       <c r="A47" s="3">
         <v>43974</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>3</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="10">
@@ -31453,13 +32120,13 @@
       <c r="A48" s="3">
         <v>43975</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>3</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="10">
@@ -31471,13 +32138,13 @@
       <c r="A49" s="3">
         <v>43976</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>6</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>1</v>
       </c>
       <c r="E49" s="10">
@@ -31489,13 +32156,13 @@
       <c r="A50" s="3">
         <v>43977</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>6</v>
       </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
         <v>1</v>
       </c>
       <c r="E50" s="10">
@@ -31507,13 +32174,13 @@
       <c r="A51" s="3">
         <v>43978</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>6</v>
       </c>
-      <c r="C51" s="12">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12">
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11">
         <v>1</v>
       </c>
       <c r="E51" s="10">
@@ -31525,13 +32192,13 @@
       <c r="A52" s="3">
         <v>43979</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>6</v>
       </c>
-      <c r="C52" s="12">
-        <v>1</v>
-      </c>
-      <c r="D52" s="12">
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="10">
@@ -31543,13 +32210,13 @@
       <c r="A53" s="3">
         <v>43980</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>6</v>
       </c>
-      <c r="C53" s="12">
-        <v>1</v>
-      </c>
-      <c r="D53" s="12">
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="10">
@@ -31561,13 +32228,13 @@
       <c r="A54" s="3">
         <v>43981</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>16</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>3</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>1</v>
       </c>
       <c r="E54" s="10">
@@ -31579,13 +32246,13 @@
       <c r="A55" s="3">
         <v>43982</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>16</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>3</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>1</v>
       </c>
       <c r="E55" s="10">
@@ -31597,13 +32264,13 @@
       <c r="A56" s="3">
         <v>43983</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>16</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>3</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="10">
@@ -31651,13 +32318,13 @@
       <c r="A59" s="3">
         <v>43986</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>27</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>3</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="10">
@@ -31669,13 +32336,13 @@
       <c r="A60" s="3">
         <v>43987</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>27</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>3</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>1</v>
       </c>
       <c r="E60" s="10">
@@ -31687,13 +32354,13 @@
       <c r="A61" s="3">
         <v>43988</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>27</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>3</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>1</v>
       </c>
       <c r="E61" s="10">
@@ -31741,13 +32408,13 @@
       <c r="A64" s="3">
         <v>43991</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>48</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>6</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>2</v>
       </c>
       <c r="E64" s="10">
@@ -32098,7 +32765,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -32113,6 +32780,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>209</v>
+      </c>
+      <c r="C85" s="4">
+        <v>96</v>
+      </c>
+      <c r="D85" s="4">
+        <v>7</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>213</v>
+      </c>
+      <c r="C86" s="4">
+        <v>112</v>
+      </c>
+      <c r="D86" s="4">
+        <v>7</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -32128,20 +32831,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -32191,7 +32896,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -33618,7 +34323,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -33633,6 +34338,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>33</v>
+      </c>
+      <c r="C85" s="4">
+        <v>12</v>
+      </c>
+      <c r="D85" s="4">
+        <v>4</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="4">
+        <v>37</v>
+      </c>
+      <c r="C86" s="4">
+        <v>13</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -33648,20 +34389,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -33711,7 +34454,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E84" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E86" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -35138,7 +35881,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="3">
         <v>44011</v>
       </c>
       <c r="B84" s="4">
@@ -35153,6 +35896,42 @@
       <c r="E84" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B85" s="4">
+        <v>74</v>
+      </c>
+      <c r="C85" s="4">
+        <v>30</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
+        <v>44013</v>
+      </c>
+      <c r="B86" s="9">
+        <v>74</v>
+      </c>
+      <c r="C86" s="9">
+        <v>30</v>
+      </c>
+      <c r="D86" s="9">
+        <v>3</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
